--- a/dsa/src/dsa.xlsx
+++ b/dsa/src/dsa.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4DF11-8FDA-464D-9FBB-0DE363A7F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="string" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>LEVEL</t>
   </si>
@@ -111,13 +112,22 @@
   </si>
   <si>
     <t>Group string into map with character frequency. Insert characters into map by maintaining insertion order (LinkedHashMap). Get 1st character which has frequency as 1</t>
+  </si>
+  <si>
+    <t>Trick</t>
+  </si>
+  <si>
+    <t>LargestOddNumberInAString</t>
+  </si>
+  <si>
+    <t>Traverse from right n find out 1st odd digit, mark it as lastIndex. Find out 1st non-zero digit from left and mark it as firstIndex. Get substring from 1st till lastIndex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +142,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1290C3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,11 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,9 +207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,9 +247,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,24 +492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -542,7 +566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -562,7 +586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -585,7 +609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -602,7 +626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -622,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -649,13 +673,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dsa/src/dsa.xlsx
+++ b/dsa/src/dsa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4DF11-8FDA-464D-9FBB-0DE363A7F846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8396E7-8CCA-46B1-BE6D-3D1CE75D98C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>LEVEL</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Traverse from right n find out 1st odd digit, mark it as lastIndex. Find out 1st non-zero digit from left and mark it as firstIndex. Get substring from 1st till lastIndex</t>
+  </si>
+  <si>
+    <t>LongestCommonPrefix</t>
+  </si>
+  <si>
+    <t>Compare 1st string's characters from each strings available in that array</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,6 +728,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dsa/src/dsa.xlsx
+++ b/dsa/src/dsa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8396E7-8CCA-46B1-BE6D-3D1CE75D98C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B864D0D-EAAC-4784-94A5-CBD5F8872AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>LEVEL</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Group string into map with character frequency. Insert characters into map by maintaining insertion order (LinkedHashMap). Get 1st character which has frequency as 1</t>
   </si>
   <si>
-    <t>Trick</t>
-  </si>
-  <si>
     <t>LargestOddNumberInAString</t>
   </si>
   <si>
@@ -126,7 +123,22 @@
     <t>LongestCommonPrefix</t>
   </si>
   <si>
-    <t>Compare 1st string's characters from each strings available in that array</t>
+    <t>Compare 1st string's characters one by one from each string's characters available in that array</t>
+  </si>
+  <si>
+    <t>sort the array n compare 1st n last string characters</t>
+  </si>
+  <si>
+    <t>LEVEL (to me)</t>
+  </si>
+  <si>
+    <t>ALGO</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>nil</t>
   </si>
 </sst>
 </file>
@@ -683,23 +695,32 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="37.90625" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -718,14 +739,18 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -735,14 +760,24 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>